--- a/12_HandleTable_CallBack/01 全局句柄表 对象头 对象类型数组.xlsx
+++ b/12_HandleTable_CallBack/01 全局句柄表 对象头 对象类型数组.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.important\mySoftwareReverse\12_HandleTable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.important\mySoftwareReverse\12_HandleTable_CallBack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20E4C80F-D400-4AB1-8B90-D09F703C1FF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1BCF882-BA92-438B-A05C-3C35EB14C0BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="237">
   <si>
     <t>全局句柄表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -825,6 +825,10 @@
   </si>
   <si>
     <t>pid、tid都是全局句柄表的索引</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  eprocess 镜像名隐藏了</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2083,8 +2087,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2276,7 +2280,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{020A3B4F-A969-4AA6-AC0D-96AC17445C70}">
   <dimension ref="B2:B26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q10" sqref="Q10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -3146,22 +3152,27 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AE0E5E2-B01B-4259-A206-B625E96F2042}">
-  <dimension ref="B3:B66"/>
+  <dimension ref="B3:M66"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="K39" sqref="K39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>145</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M16" s="3" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
@@ -3351,7 +3362,7 @@
       </c>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B59" s="1" t="s">
+      <c r="B59" s="3" t="s">
         <v>170</v>
       </c>
     </row>
